--- a/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
+++ b/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4.3 20161028\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Mogo_Doc\VersionRecords\Version 5.0.4.2 20161028\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4.2新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="配置文件（生产环境）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4.2新特性|Fix Bug'!$A$1:$U$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4.2新特性|Fix Bug'!$A$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -147,11 +150,55 @@
     <t>技术经理</t>
   </si>
   <si>
+    <t>重要</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>重要程度</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>紧急程度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组、EQ组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号、支付宝公众号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>New Feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码微信支付宝报修功能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -992,47 +1039,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V179"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="25" customWidth="1"/>
-    <col min="2" max="3" width="9.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="25" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" style="26" customWidth="1"/>
     <col min="5" max="5" width="15" style="25" customWidth="1"/>
     <col min="6" max="6" width="18" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="25" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="25" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="25" customWidth="1"/>
     <col min="15" max="15" width="10" style="26" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="26" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="26" customWidth="1"/>
     <col min="18" max="18" width="12" style="27" customWidth="1"/>
     <col min="19" max="19" width="17" style="27" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="27" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="26" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" style="27" customWidth="1"/>
+    <col min="21" max="21" width="41.88671875" style="26" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>1</v>
@@ -1089,43 +1136,69 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+    <row r="2" spans="1:22" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="32">
+        <v>42670</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="32">
+        <v>42670</v>
+      </c>
       <c r="K2" s="31"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="L2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="O2" s="39"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="45"/>
-      <c r="U2" s="44"/>
+      <c r="U2" s="42"/>
       <c r="V2" s="43"/>
     </row>
-    <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="47"/>
       <c r="D3" s="49"/>
-      <c r="E3" s="31"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="31"/>
       <c r="H3" s="32"/>
       <c r="I3" s="31"/>
       <c r="J3" s="32"/>
       <c r="K3" s="31"/>
-      <c r="L3" s="46"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="39"/>
@@ -1137,7 +1210,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="43"/>
     </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="47"/>
@@ -1161,31 +1234,31 @@
       <c r="U4" s="44"/>
       <c r="V4" s="43"/>
     </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="47"/>
       <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="50"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="46"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="39"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="45"/>
-      <c r="U5" s="52"/>
+      <c r="U5" s="44"/>
       <c r="V5" s="43"/>
     </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="47"/>
@@ -1206,10 +1279,10 @@
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
       <c r="T6" s="45"/>
-      <c r="U6" s="53"/>
+      <c r="U6" s="52"/>
       <c r="V6" s="43"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="47"/>
@@ -1224,16 +1297,16 @@
       <c r="L7" s="46"/>
       <c r="M7" s="50"/>
       <c r="N7" s="50"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="46"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="39"/>
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="45"/>
-      <c r="U7" s="52"/>
+      <c r="U7" s="53"/>
       <c r="V7" s="43"/>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="47"/>
@@ -1254,10 +1327,10 @@
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="45"/>
-      <c r="U8" s="53"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="43"/>
     </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="47"/>
@@ -1281,7 +1354,7 @@
       <c r="U9" s="53"/>
       <c r="V9" s="43"/>
     </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="47"/>
@@ -1305,44 +1378,44 @@
       <c r="U10" s="53"/>
       <c r="V10" s="43"/>
     </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="54"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="50"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
       <c r="T11" s="45"/>
-      <c r="U11" s="42"/>
+      <c r="U11" s="53"/>
       <c r="V11" s="43"/>
     </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="57"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="31"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
       <c r="P12" s="32"/>
@@ -1350,10 +1423,10 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
       <c r="T12" s="45"/>
-      <c r="U12" s="39"/>
+      <c r="U12" s="42"/>
       <c r="V12" s="43"/>
     </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1371,19 +1444,19 @@
       <c r="O13" s="39"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="39"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
       <c r="T13" s="45"/>
-      <c r="U13" s="42"/>
+      <c r="U13" s="39"/>
       <c r="V13" s="43"/>
     </row>
-    <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="31"/>
@@ -1391,7 +1464,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="39"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="39"/>
@@ -1401,7 +1474,7 @@
       <c r="U14" s="42"/>
       <c r="V14" s="43"/>
     </row>
-    <row r="15" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="47"/>
@@ -1410,7 +1483,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="32"/>
       <c r="K15" s="31"/>
       <c r="L15" s="39"/>
@@ -1425,7 +1498,7 @@
       <c r="U15" s="42"/>
       <c r="V15" s="43"/>
     </row>
-    <row r="16" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="47"/>
@@ -1449,7 +1522,7 @@
       <c r="U16" s="42"/>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="47"/>
@@ -1473,7 +1546,7 @@
       <c r="U17" s="42"/>
       <c r="V17" s="43"/>
     </row>
-    <row r="18" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="47"/>
@@ -1482,7 +1555,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="31"/>
       <c r="L18" s="39"/>
@@ -1497,7 +1570,7 @@
       <c r="U18" s="42"/>
       <c r="V18" s="43"/>
     </row>
-    <row r="19" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="47"/>
@@ -1521,16 +1594,16 @@
       <c r="U19" s="42"/>
       <c r="V19" s="43"/>
     </row>
-    <row r="20" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="32"/>
       <c r="K20" s="31"/>
       <c r="L20" s="39"/>
@@ -1541,11 +1614,11 @@
       <c r="Q20" s="39"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
+      <c r="T20" s="45"/>
       <c r="U20" s="42"/>
       <c r="V20" s="43"/>
     </row>
-    <row r="21" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -1569,31 +1642,31 @@
       <c r="U21" s="42"/>
       <c r="V21" s="43"/>
     </row>
-    <row r="22" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
+    <row r="22" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="34"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="39"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
-      <c r="U22" s="34"/>
+      <c r="U22" s="42"/>
       <c r="V22" s="43"/>
     </row>
-    <row r="23" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -1617,30 +1690,31 @@
       <c r="U23" s="34"/>
       <c r="V23" s="43"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="36"/>
+    <row r="24" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="37"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="34"/>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
-      <c r="U24" s="37"/>
-    </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U24" s="34"/>
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1663,7 +1737,7 @@
       <c r="T25" s="36"/>
       <c r="U25" s="37"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -1686,7 +1760,7 @@
       <c r="T26" s="36"/>
       <c r="U26" s="37"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -1709,7 +1783,7 @@
       <c r="T27" s="36"/>
       <c r="U27" s="37"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -1732,7 +1806,7 @@
       <c r="T28" s="36"/>
       <c r="U28" s="37"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -1755,7 +1829,7 @@
       <c r="T29" s="36"/>
       <c r="U29" s="37"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -1778,7 +1852,7 @@
       <c r="T30" s="36"/>
       <c r="U30" s="37"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -1801,7 +1875,7 @@
       <c r="T31" s="36"/>
       <c r="U31" s="37"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -1824,7 +1898,7 @@
       <c r="T32" s="36"/>
       <c r="U32" s="37"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -1847,7 +1921,7 @@
       <c r="T33" s="36"/>
       <c r="U33" s="37"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -1870,7 +1944,7 @@
       <c r="T34" s="36"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -1893,7 +1967,7 @@
       <c r="T35" s="36"/>
       <c r="U35" s="37"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -1916,7 +1990,7 @@
       <c r="T36" s="36"/>
       <c r="U36" s="37"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -1939,7 +2013,7 @@
       <c r="T37" s="36"/>
       <c r="U37" s="37"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -1962,7 +2036,7 @@
       <c r="T38" s="36"/>
       <c r="U38" s="37"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -1985,7 +2059,7 @@
       <c r="T39" s="36"/>
       <c r="U39" s="37"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2008,7 +2082,7 @@
       <c r="T40" s="36"/>
       <c r="U40" s="37"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2031,7 +2105,7 @@
       <c r="T41" s="36"/>
       <c r="U41" s="37"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2054,7 +2128,7 @@
       <c r="T42" s="36"/>
       <c r="U42" s="37"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2077,7 +2151,7 @@
       <c r="T43" s="36"/>
       <c r="U43" s="37"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2100,7 +2174,7 @@
       <c r="T44" s="36"/>
       <c r="U44" s="37"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2123,7 +2197,7 @@
       <c r="T45" s="36"/>
       <c r="U45" s="37"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2146,7 +2220,7 @@
       <c r="T46" s="36"/>
       <c r="U46" s="37"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2169,7 +2243,7 @@
       <c r="T47" s="36"/>
       <c r="U47" s="37"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2192,7 +2266,7 @@
       <c r="T48" s="36"/>
       <c r="U48" s="37"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2215,7 +2289,7 @@
       <c r="T49" s="36"/>
       <c r="U49" s="37"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2238,7 +2312,7 @@
       <c r="T50" s="36"/>
       <c r="U50" s="37"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2261,7 +2335,7 @@
       <c r="T51" s="36"/>
       <c r="U51" s="37"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2284,7 +2358,7 @@
       <c r="T52" s="36"/>
       <c r="U52" s="37"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2307,7 +2381,7 @@
       <c r="T53" s="36"/>
       <c r="U53" s="37"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -2330,7 +2404,7 @@
       <c r="T54" s="36"/>
       <c r="U54" s="37"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
@@ -2353,7 +2427,7 @@
       <c r="T55" s="36"/>
       <c r="U55" s="37"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
@@ -2376,7 +2450,7 @@
       <c r="T56" s="36"/>
       <c r="U56" s="37"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
@@ -2399,7 +2473,7 @@
       <c r="T57" s="36"/>
       <c r="U57" s="37"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -2422,7 +2496,7 @@
       <c r="T58" s="36"/>
       <c r="U58" s="37"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -2445,7 +2519,7 @@
       <c r="T59" s="36"/>
       <c r="U59" s="37"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -2468,7 +2542,7 @@
       <c r="T60" s="36"/>
       <c r="U60" s="37"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -2491,7 +2565,7 @@
       <c r="T61" s="36"/>
       <c r="U61" s="37"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -2514,7 +2588,7 @@
       <c r="T62" s="36"/>
       <c r="U62" s="37"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -2537,7 +2611,7 @@
       <c r="T63" s="36"/>
       <c r="U63" s="37"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -2560,7 +2634,7 @@
       <c r="T64" s="36"/>
       <c r="U64" s="37"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -2583,7 +2657,7 @@
       <c r="T65" s="36"/>
       <c r="U65" s="37"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -2606,7 +2680,7 @@
       <c r="T66" s="36"/>
       <c r="U66" s="37"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -2629,7 +2703,7 @@
       <c r="T67" s="36"/>
       <c r="U67" s="37"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -2652,7 +2726,7 @@
       <c r="T68" s="36"/>
       <c r="U68" s="37"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -2675,7 +2749,7 @@
       <c r="T69" s="36"/>
       <c r="U69" s="37"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -2698,7 +2772,7 @@
       <c r="T70" s="36"/>
       <c r="U70" s="37"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -2721,7 +2795,7 @@
       <c r="T71" s="36"/>
       <c r="U71" s="37"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -2744,7 +2818,7 @@
       <c r="T72" s="36"/>
       <c r="U72" s="37"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -2767,7 +2841,7 @@
       <c r="T73" s="36"/>
       <c r="U73" s="37"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -2790,7 +2864,7 @@
       <c r="T74" s="36"/>
       <c r="U74" s="37"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -2813,7 +2887,7 @@
       <c r="T75" s="36"/>
       <c r="U75" s="37"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -2836,7 +2910,7 @@
       <c r="T76" s="36"/>
       <c r="U76" s="37"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -2859,7 +2933,7 @@
       <c r="T77" s="36"/>
       <c r="U77" s="37"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -2882,14 +2956,14 @@
       <c r="T78" s="36"/>
       <c r="U78" s="37"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
       <c r="D79" s="37"/>
       <c r="E79" s="36"/>
       <c r="F79" s="31"/>
-      <c r="G79" s="36"/>
+      <c r="G79" s="31"/>
       <c r="H79" s="38"/>
       <c r="I79" s="36"/>
       <c r="J79" s="38"/>
@@ -2905,7 +2979,7 @@
       <c r="T79" s="36"/>
       <c r="U79" s="37"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -2928,7 +3002,7 @@
       <c r="T80" s="36"/>
       <c r="U80" s="37"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -2951,7 +3025,7 @@
       <c r="T81" s="36"/>
       <c r="U81" s="37"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -2974,7 +3048,7 @@
       <c r="T82" s="36"/>
       <c r="U82" s="37"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -2997,7 +3071,7 @@
       <c r="T83" s="36"/>
       <c r="U83" s="37"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -3020,13 +3094,13 @@
       <c r="T84" s="36"/>
       <c r="U84" s="37"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
+      <c r="F85" s="31"/>
       <c r="G85" s="36"/>
       <c r="H85" s="38"/>
       <c r="I85" s="36"/>
@@ -3043,7 +3117,7 @@
       <c r="T85" s="36"/>
       <c r="U85" s="37"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -3066,7 +3140,7 @@
       <c r="T86" s="36"/>
       <c r="U86" s="37"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -3089,7 +3163,7 @@
       <c r="T87" s="36"/>
       <c r="U87" s="37"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -3112,7 +3186,7 @@
       <c r="T88" s="36"/>
       <c r="U88" s="37"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -3135,7 +3209,7 @@
       <c r="T89" s="36"/>
       <c r="U89" s="37"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -3158,7 +3232,7 @@
       <c r="T90" s="36"/>
       <c r="U90" s="37"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -3181,7 +3255,7 @@
       <c r="T91" s="36"/>
       <c r="U91" s="37"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -3204,7 +3278,7 @@
       <c r="T92" s="36"/>
       <c r="U92" s="37"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -3227,7 +3301,7 @@
       <c r="T93" s="36"/>
       <c r="U93" s="37"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -3250,7 +3324,7 @@
       <c r="T94" s="36"/>
       <c r="U94" s="37"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -3273,7 +3347,7 @@
       <c r="T95" s="36"/>
       <c r="U95" s="37"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -3296,7 +3370,7 @@
       <c r="T96" s="36"/>
       <c r="U96" s="37"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -3319,7 +3393,7 @@
       <c r="T97" s="36"/>
       <c r="U97" s="37"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -3342,7 +3416,7 @@
       <c r="T98" s="36"/>
       <c r="U98" s="37"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -3365,7 +3439,7 @@
       <c r="T99" s="36"/>
       <c r="U99" s="37"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -3388,7 +3462,7 @@
       <c r="T100" s="36"/>
       <c r="U100" s="37"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -3411,7 +3485,7 @@
       <c r="T101" s="36"/>
       <c r="U101" s="37"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -3434,7 +3508,7 @@
       <c r="T102" s="36"/>
       <c r="U102" s="37"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -3457,7 +3531,7 @@
       <c r="T103" s="36"/>
       <c r="U103" s="37"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -3480,7 +3554,7 @@
       <c r="T104" s="36"/>
       <c r="U104" s="37"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -3503,7 +3577,7 @@
       <c r="T105" s="36"/>
       <c r="U105" s="37"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -3526,7 +3600,7 @@
       <c r="T106" s="36"/>
       <c r="U106" s="37"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -3549,7 +3623,7 @@
       <c r="T107" s="36"/>
       <c r="U107" s="37"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -3572,7 +3646,7 @@
       <c r="T108" s="36"/>
       <c r="U108" s="37"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -3595,7 +3669,7 @@
       <c r="T109" s="36"/>
       <c r="U109" s="37"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -3618,7 +3692,7 @@
       <c r="T110" s="36"/>
       <c r="U110" s="37"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -3641,7 +3715,7 @@
       <c r="T111" s="36"/>
       <c r="U111" s="37"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -3664,7 +3738,7 @@
       <c r="T112" s="36"/>
       <c r="U112" s="37"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -3687,7 +3761,7 @@
       <c r="T113" s="36"/>
       <c r="U113" s="37"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -3710,7 +3784,7 @@
       <c r="T114" s="36"/>
       <c r="U114" s="37"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -3733,7 +3807,7 @@
       <c r="T115" s="36"/>
       <c r="U115" s="37"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -3756,7 +3830,7 @@
       <c r="T116" s="36"/>
       <c r="U116" s="37"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -3779,7 +3853,7 @@
       <c r="T117" s="36"/>
       <c r="U117" s="37"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -3802,7 +3876,7 @@
       <c r="T118" s="36"/>
       <c r="U118" s="37"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -3825,7 +3899,7 @@
       <c r="T119" s="36"/>
       <c r="U119" s="37"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -3848,7 +3922,7 @@
       <c r="T120" s="36"/>
       <c r="U120" s="37"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -3871,7 +3945,7 @@
       <c r="T121" s="36"/>
       <c r="U121" s="37"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -3894,7 +3968,7 @@
       <c r="T122" s="36"/>
       <c r="U122" s="37"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -3917,7 +3991,7 @@
       <c r="T123" s="36"/>
       <c r="U123" s="37"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -3940,7 +4014,7 @@
       <c r="T124" s="36"/>
       <c r="U124" s="37"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -3963,7 +4037,7 @@
       <c r="T125" s="36"/>
       <c r="U125" s="37"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -3986,7 +4060,7 @@
       <c r="T126" s="36"/>
       <c r="U126" s="37"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -4009,7 +4083,7 @@
       <c r="T127" s="36"/>
       <c r="U127" s="37"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -4032,7 +4106,7 @@
       <c r="T128" s="36"/>
       <c r="U128" s="37"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -4055,7 +4129,7 @@
       <c r="T129" s="36"/>
       <c r="U129" s="37"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -4078,7 +4152,7 @@
       <c r="T130" s="36"/>
       <c r="U130" s="37"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -4101,7 +4175,7 @@
       <c r="T131" s="36"/>
       <c r="U131" s="37"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -4124,7 +4198,7 @@
       <c r="T132" s="36"/>
       <c r="U132" s="37"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -4147,7 +4221,7 @@
       <c r="T133" s="36"/>
       <c r="U133" s="37"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -4170,7 +4244,7 @@
       <c r="T134" s="36"/>
       <c r="U134" s="37"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -4193,7 +4267,7 @@
       <c r="T135" s="36"/>
       <c r="U135" s="37"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -4216,7 +4290,7 @@
       <c r="T136" s="36"/>
       <c r="U136" s="37"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -4239,7 +4313,7 @@
       <c r="T137" s="36"/>
       <c r="U137" s="37"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -4262,7 +4336,7 @@
       <c r="T138" s="36"/>
       <c r="U138" s="37"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -4285,7 +4359,7 @@
       <c r="T139" s="36"/>
       <c r="U139" s="37"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -4308,7 +4382,7 @@
       <c r="T140" s="36"/>
       <c r="U140" s="37"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -4331,7 +4405,7 @@
       <c r="T141" s="36"/>
       <c r="U141" s="37"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -4354,7 +4428,7 @@
       <c r="T142" s="36"/>
       <c r="U142" s="37"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -4377,7 +4451,7 @@
       <c r="T143" s="36"/>
       <c r="U143" s="37"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -4400,7 +4474,7 @@
       <c r="T144" s="36"/>
       <c r="U144" s="37"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -4418,9 +4492,12 @@
       <c r="O145" s="36"/>
       <c r="P145" s="38"/>
       <c r="Q145" s="37"/>
+      <c r="R145" s="36"/>
+      <c r="S145" s="36"/>
+      <c r="T145" s="36"/>
       <c r="U145" s="37"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -4440,7 +4517,7 @@
       <c r="Q146" s="37"/>
       <c r="U146" s="37"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -4460,7 +4537,7 @@
       <c r="Q147" s="37"/>
       <c r="U147" s="37"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -4480,7 +4557,7 @@
       <c r="Q148" s="37"/>
       <c r="U148" s="37"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -4500,7 +4577,7 @@
       <c r="Q149" s="37"/>
       <c r="U149" s="37"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -4520,7 +4597,7 @@
       <c r="Q150" s="37"/>
       <c r="U150" s="37"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -4540,7 +4617,7 @@
       <c r="Q151" s="37"/>
       <c r="U151" s="37"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -4560,7 +4637,7 @@
       <c r="Q152" s="37"/>
       <c r="U152" s="37"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -4580,7 +4657,7 @@
       <c r="Q153" s="37"/>
       <c r="U153" s="37"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -4600,7 +4677,7 @@
       <c r="Q154" s="37"/>
       <c r="U154" s="37"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -4620,7 +4697,7 @@
       <c r="Q155" s="37"/>
       <c r="U155" s="37"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -4640,7 +4717,7 @@
       <c r="Q156" s="37"/>
       <c r="U156" s="37"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -4660,7 +4737,7 @@
       <c r="Q157" s="37"/>
       <c r="U157" s="37"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -4680,7 +4757,7 @@
       <c r="Q158" s="37"/>
       <c r="U158" s="37"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -4700,7 +4777,7 @@
       <c r="Q159" s="37"/>
       <c r="U159" s="37"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -4720,7 +4797,7 @@
       <c r="Q160" s="37"/>
       <c r="U160" s="37"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -4740,7 +4817,7 @@
       <c r="Q161" s="37"/>
       <c r="U161" s="37"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -4760,7 +4837,7 @@
       <c r="Q162" s="37"/>
       <c r="U162" s="37"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -4780,7 +4857,7 @@
       <c r="Q163" s="37"/>
       <c r="U163" s="37"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -4800,7 +4877,7 @@
       <c r="Q164" s="37"/>
       <c r="U164" s="37"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -4820,7 +4897,7 @@
       <c r="Q165" s="37"/>
       <c r="U165" s="37"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -4840,7 +4917,7 @@
       <c r="Q166" s="37"/>
       <c r="U166" s="37"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -4860,7 +4937,7 @@
       <c r="Q167" s="37"/>
       <c r="U167" s="37"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -4880,7 +4957,7 @@
       <c r="Q168" s="37"/>
       <c r="U168" s="37"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -4900,7 +4977,7 @@
       <c r="Q169" s="37"/>
       <c r="U169" s="37"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -4920,7 +4997,7 @@
       <c r="Q170" s="37"/>
       <c r="U170" s="37"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -4940,7 +5017,7 @@
       <c r="Q171" s="37"/>
       <c r="U171" s="37"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -4960,7 +5037,7 @@
       <c r="Q172" s="37"/>
       <c r="U172" s="37"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -4980,7 +5057,7 @@
       <c r="Q173" s="37"/>
       <c r="U173" s="37"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -5000,7 +5077,7 @@
       <c r="Q174" s="37"/>
       <c r="U174" s="37"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -5020,7 +5097,7 @@
       <c r="Q175" s="37"/>
       <c r="U175" s="37"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -5040,7 +5117,7 @@
       <c r="Q176" s="37"/>
       <c r="U176" s="37"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -5060,7 +5137,7 @@
       <c r="Q177" s="37"/>
       <c r="U177" s="37"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -5080,7 +5157,7 @@
       <c r="Q178" s="37"/>
       <c r="U178" s="37"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -5100,8 +5177,28 @@
       <c r="Q179" s="37"/>
       <c r="U179" s="37"/>
     </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="36"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="38"/>
+      <c r="K180" s="41"/>
+      <c r="L180" s="36"/>
+      <c r="M180" s="36"/>
+      <c r="N180" s="36"/>
+      <c r="O180" s="36"/>
+      <c r="P180" s="38"/>
+      <c r="Q180" s="37"/>
+      <c r="U180" s="37"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U18"/>
+  <autoFilter ref="A1:U19"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -5116,44 +5213,44 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -5163,7 +5260,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -5173,7 +5270,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5183,7 +5280,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -5193,7 +5290,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5203,7 +5300,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -5213,7 +5310,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -5223,7 +5320,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -5233,7 +5330,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -5243,7 +5340,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -5253,7 +5350,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -5263,7 +5360,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -5273,7 +5370,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -5283,7 +5380,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -5293,7 +5390,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -5303,7 +5400,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -5313,7 +5410,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -5323,7 +5420,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -5352,845 +5449,845 @@
       <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="91.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="29.625" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="257" max="257" width="3.88671875" customWidth="1"/>
+    <col min="258" max="258" width="10.109375" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.125" customWidth="1"/>
+    <col min="260" max="260" width="12.109375" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.125" customWidth="1"/>
-    <col min="264" max="264" width="25.625" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.109375" customWidth="1"/>
+    <col min="263" max="263" width="82.109375" customWidth="1"/>
+    <col min="264" max="264" width="25.6640625" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.88671875" customWidth="1"/>
+    <col min="267" max="267" width="10.109375" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.625" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.6640625" customWidth="1"/>
+    <col min="513" max="513" width="3.88671875" customWidth="1"/>
+    <col min="514" max="514" width="10.109375" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.125" customWidth="1"/>
+    <col min="516" max="516" width="12.109375" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.125" customWidth="1"/>
-    <col min="520" max="520" width="25.625" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.109375" customWidth="1"/>
+    <col min="519" max="519" width="82.109375" customWidth="1"/>
+    <col min="520" max="520" width="25.6640625" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.88671875" customWidth="1"/>
+    <col min="523" max="523" width="10.109375" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.625" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.6640625" customWidth="1"/>
+    <col min="769" max="769" width="3.88671875" customWidth="1"/>
+    <col min="770" max="770" width="10.109375" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.125" customWidth="1"/>
+    <col min="772" max="772" width="12.109375" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.125" customWidth="1"/>
-    <col min="776" max="776" width="25.625" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.109375" customWidth="1"/>
+    <col min="775" max="775" width="82.109375" customWidth="1"/>
+    <col min="776" max="776" width="25.6640625" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.88671875" customWidth="1"/>
+    <col min="779" max="779" width="10.109375" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.6640625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.88671875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.109375" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.125" customWidth="1"/>
+    <col min="1028" max="1028" width="12.109375" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.125" customWidth="1"/>
-    <col min="1032" max="1032" width="25.625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.109375" customWidth="1"/>
+    <col min="1031" max="1031" width="82.109375" customWidth="1"/>
+    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.88671875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.109375" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.88671875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.109375" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.125" customWidth="1"/>
+    <col min="1284" max="1284" width="12.109375" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.125" customWidth="1"/>
-    <col min="1288" max="1288" width="25.625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.109375" customWidth="1"/>
+    <col min="1287" max="1287" width="82.109375" customWidth="1"/>
+    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.88671875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.109375" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.88671875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.109375" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.125" customWidth="1"/>
+    <col min="1540" max="1540" width="12.109375" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.125" customWidth="1"/>
-    <col min="1544" max="1544" width="25.625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.109375" customWidth="1"/>
+    <col min="1543" max="1543" width="82.109375" customWidth="1"/>
+    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.88671875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.109375" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.88671875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.109375" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.125" customWidth="1"/>
+    <col min="1796" max="1796" width="12.109375" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.125" customWidth="1"/>
-    <col min="1800" max="1800" width="25.625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.109375" customWidth="1"/>
+    <col min="1799" max="1799" width="82.109375" customWidth="1"/>
+    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.88671875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.109375" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.88671875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.109375" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.125" customWidth="1"/>
+    <col min="2052" max="2052" width="12.109375" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.125" customWidth="1"/>
-    <col min="2056" max="2056" width="25.625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.109375" customWidth="1"/>
+    <col min="2055" max="2055" width="82.109375" customWidth="1"/>
+    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.88671875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.109375" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.88671875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.109375" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.125" customWidth="1"/>
+    <col min="2308" max="2308" width="12.109375" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.125" customWidth="1"/>
-    <col min="2312" max="2312" width="25.625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.109375" customWidth="1"/>
+    <col min="2311" max="2311" width="82.109375" customWidth="1"/>
+    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.88671875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.109375" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.88671875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.109375" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.125" customWidth="1"/>
+    <col min="2564" max="2564" width="12.109375" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.125" customWidth="1"/>
-    <col min="2568" max="2568" width="25.625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.109375" customWidth="1"/>
+    <col min="2567" max="2567" width="82.109375" customWidth="1"/>
+    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.88671875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.109375" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.88671875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.109375" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.125" customWidth="1"/>
+    <col min="2820" max="2820" width="12.109375" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.125" customWidth="1"/>
-    <col min="2824" max="2824" width="25.625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.109375" customWidth="1"/>
+    <col min="2823" max="2823" width="82.109375" customWidth="1"/>
+    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.88671875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.109375" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.88671875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.109375" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.125" customWidth="1"/>
+    <col min="3076" max="3076" width="12.109375" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.125" customWidth="1"/>
-    <col min="3080" max="3080" width="25.625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.109375" customWidth="1"/>
+    <col min="3079" max="3079" width="82.109375" customWidth="1"/>
+    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.88671875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.109375" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.88671875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.109375" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.125" customWidth="1"/>
+    <col min="3332" max="3332" width="12.109375" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.125" customWidth="1"/>
-    <col min="3336" max="3336" width="25.625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.109375" customWidth="1"/>
+    <col min="3335" max="3335" width="82.109375" customWidth="1"/>
+    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.88671875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.109375" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.88671875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.109375" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.125" customWidth="1"/>
+    <col min="3588" max="3588" width="12.109375" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.125" customWidth="1"/>
-    <col min="3592" max="3592" width="25.625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.109375" customWidth="1"/>
+    <col min="3591" max="3591" width="82.109375" customWidth="1"/>
+    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.88671875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.109375" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.88671875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.109375" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.125" customWidth="1"/>
+    <col min="3844" max="3844" width="12.109375" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.125" customWidth="1"/>
-    <col min="3848" max="3848" width="25.625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.109375" customWidth="1"/>
+    <col min="3847" max="3847" width="82.109375" customWidth="1"/>
+    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.88671875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.109375" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.88671875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.109375" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.125" customWidth="1"/>
+    <col min="4100" max="4100" width="12.109375" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.125" customWidth="1"/>
-    <col min="4104" max="4104" width="25.625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.109375" customWidth="1"/>
+    <col min="4103" max="4103" width="82.109375" customWidth="1"/>
+    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.88671875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.109375" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.88671875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.109375" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.125" customWidth="1"/>
+    <col min="4356" max="4356" width="12.109375" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.125" customWidth="1"/>
-    <col min="4360" max="4360" width="25.625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.109375" customWidth="1"/>
+    <col min="4359" max="4359" width="82.109375" customWidth="1"/>
+    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.88671875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.109375" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.88671875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.109375" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.125" customWidth="1"/>
+    <col min="4612" max="4612" width="12.109375" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.125" customWidth="1"/>
-    <col min="4616" max="4616" width="25.625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.109375" customWidth="1"/>
+    <col min="4615" max="4615" width="82.109375" customWidth="1"/>
+    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.88671875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.109375" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.88671875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.109375" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.125" customWidth="1"/>
+    <col min="4868" max="4868" width="12.109375" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.125" customWidth="1"/>
-    <col min="4872" max="4872" width="25.625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.109375" customWidth="1"/>
+    <col min="4871" max="4871" width="82.109375" customWidth="1"/>
+    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.88671875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.109375" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.88671875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.109375" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.125" customWidth="1"/>
+    <col min="5124" max="5124" width="12.109375" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.125" customWidth="1"/>
-    <col min="5128" max="5128" width="25.625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.109375" customWidth="1"/>
+    <col min="5127" max="5127" width="82.109375" customWidth="1"/>
+    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.88671875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.109375" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.88671875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.109375" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.125" customWidth="1"/>
+    <col min="5380" max="5380" width="12.109375" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.125" customWidth="1"/>
-    <col min="5384" max="5384" width="25.625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.109375" customWidth="1"/>
+    <col min="5383" max="5383" width="82.109375" customWidth="1"/>
+    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.88671875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.109375" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.88671875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.109375" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.125" customWidth="1"/>
+    <col min="5636" max="5636" width="12.109375" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.125" customWidth="1"/>
-    <col min="5640" max="5640" width="25.625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.109375" customWidth="1"/>
+    <col min="5639" max="5639" width="82.109375" customWidth="1"/>
+    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.88671875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.109375" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.88671875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.109375" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.125" customWidth="1"/>
+    <col min="5892" max="5892" width="12.109375" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.125" customWidth="1"/>
-    <col min="5896" max="5896" width="25.625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.109375" customWidth="1"/>
+    <col min="5895" max="5895" width="82.109375" customWidth="1"/>
+    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.88671875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.109375" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.88671875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.109375" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.125" customWidth="1"/>
+    <col min="6148" max="6148" width="12.109375" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.125" customWidth="1"/>
-    <col min="6152" max="6152" width="25.625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.109375" customWidth="1"/>
+    <col min="6151" max="6151" width="82.109375" customWidth="1"/>
+    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.88671875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.109375" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.88671875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.109375" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.125" customWidth="1"/>
+    <col min="6404" max="6404" width="12.109375" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.125" customWidth="1"/>
-    <col min="6408" max="6408" width="25.625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.109375" customWidth="1"/>
+    <col min="6407" max="6407" width="82.109375" customWidth="1"/>
+    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.88671875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.109375" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.88671875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.109375" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.125" customWidth="1"/>
+    <col min="6660" max="6660" width="12.109375" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.125" customWidth="1"/>
-    <col min="6664" max="6664" width="25.625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.109375" customWidth="1"/>
+    <col min="6663" max="6663" width="82.109375" customWidth="1"/>
+    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.88671875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.109375" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.88671875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.109375" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.125" customWidth="1"/>
+    <col min="6916" max="6916" width="12.109375" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.125" customWidth="1"/>
-    <col min="6920" max="6920" width="25.625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.109375" customWidth="1"/>
+    <col min="6919" max="6919" width="82.109375" customWidth="1"/>
+    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.88671875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.109375" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.88671875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.109375" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.125" customWidth="1"/>
+    <col min="7172" max="7172" width="12.109375" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.125" customWidth="1"/>
-    <col min="7176" max="7176" width="25.625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.109375" customWidth="1"/>
+    <col min="7175" max="7175" width="82.109375" customWidth="1"/>
+    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.88671875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.109375" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.88671875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.109375" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.125" customWidth="1"/>
+    <col min="7428" max="7428" width="12.109375" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.125" customWidth="1"/>
-    <col min="7432" max="7432" width="25.625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.109375" customWidth="1"/>
+    <col min="7431" max="7431" width="82.109375" customWidth="1"/>
+    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.88671875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.109375" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.88671875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.109375" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.125" customWidth="1"/>
+    <col min="7684" max="7684" width="12.109375" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.125" customWidth="1"/>
-    <col min="7688" max="7688" width="25.625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.109375" customWidth="1"/>
+    <col min="7687" max="7687" width="82.109375" customWidth="1"/>
+    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.88671875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.109375" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.88671875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.109375" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.125" customWidth="1"/>
+    <col min="7940" max="7940" width="12.109375" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.125" customWidth="1"/>
-    <col min="7944" max="7944" width="25.625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.109375" customWidth="1"/>
+    <col min="7943" max="7943" width="82.109375" customWidth="1"/>
+    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.88671875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.109375" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.88671875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.109375" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.125" customWidth="1"/>
+    <col min="8196" max="8196" width="12.109375" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.125" customWidth="1"/>
-    <col min="8200" max="8200" width="25.625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.109375" customWidth="1"/>
+    <col min="8199" max="8199" width="82.109375" customWidth="1"/>
+    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.88671875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.109375" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.88671875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.109375" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.125" customWidth="1"/>
+    <col min="8452" max="8452" width="12.109375" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.125" customWidth="1"/>
-    <col min="8456" max="8456" width="25.625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.109375" customWidth="1"/>
+    <col min="8455" max="8455" width="82.109375" customWidth="1"/>
+    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.88671875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.109375" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.88671875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.109375" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.125" customWidth="1"/>
+    <col min="8708" max="8708" width="12.109375" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.125" customWidth="1"/>
-    <col min="8712" max="8712" width="25.625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.109375" customWidth="1"/>
+    <col min="8711" max="8711" width="82.109375" customWidth="1"/>
+    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.88671875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.109375" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.88671875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.109375" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.125" customWidth="1"/>
+    <col min="8964" max="8964" width="12.109375" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.125" customWidth="1"/>
-    <col min="8968" max="8968" width="25.625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.109375" customWidth="1"/>
+    <col min="8967" max="8967" width="82.109375" customWidth="1"/>
+    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.88671875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.109375" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.88671875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.109375" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.125" customWidth="1"/>
+    <col min="9220" max="9220" width="12.109375" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.125" customWidth="1"/>
-    <col min="9224" max="9224" width="25.625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.109375" customWidth="1"/>
+    <col min="9223" max="9223" width="82.109375" customWidth="1"/>
+    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.88671875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.109375" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.88671875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.109375" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.125" customWidth="1"/>
+    <col min="9476" max="9476" width="12.109375" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.125" customWidth="1"/>
-    <col min="9480" max="9480" width="25.625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.109375" customWidth="1"/>
+    <col min="9479" max="9479" width="82.109375" customWidth="1"/>
+    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.88671875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.109375" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.88671875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.109375" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.125" customWidth="1"/>
+    <col min="9732" max="9732" width="12.109375" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.125" customWidth="1"/>
-    <col min="9736" max="9736" width="25.625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.109375" customWidth="1"/>
+    <col min="9735" max="9735" width="82.109375" customWidth="1"/>
+    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.88671875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.109375" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.88671875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.109375" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.125" customWidth="1"/>
+    <col min="9988" max="9988" width="12.109375" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.125" customWidth="1"/>
-    <col min="9992" max="9992" width="25.625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.109375" customWidth="1"/>
+    <col min="9991" max="9991" width="82.109375" customWidth="1"/>
+    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.88671875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.109375" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.88671875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.109375" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.125" customWidth="1"/>
+    <col min="10244" max="10244" width="12.109375" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.125" customWidth="1"/>
-    <col min="10248" max="10248" width="25.625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.109375" customWidth="1"/>
+    <col min="10247" max="10247" width="82.109375" customWidth="1"/>
+    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.88671875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.109375" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.88671875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.109375" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.125" customWidth="1"/>
+    <col min="10500" max="10500" width="12.109375" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.125" customWidth="1"/>
-    <col min="10504" max="10504" width="25.625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.109375" customWidth="1"/>
+    <col min="10503" max="10503" width="82.109375" customWidth="1"/>
+    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.88671875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.109375" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.88671875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.109375" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.125" customWidth="1"/>
+    <col min="10756" max="10756" width="12.109375" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.125" customWidth="1"/>
-    <col min="10760" max="10760" width="25.625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.109375" customWidth="1"/>
+    <col min="10759" max="10759" width="82.109375" customWidth="1"/>
+    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.88671875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.109375" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.88671875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.109375" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.125" customWidth="1"/>
+    <col min="11012" max="11012" width="12.109375" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.125" customWidth="1"/>
-    <col min="11016" max="11016" width="25.625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.109375" customWidth="1"/>
+    <col min="11015" max="11015" width="82.109375" customWidth="1"/>
+    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.88671875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.109375" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.88671875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.109375" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.125" customWidth="1"/>
+    <col min="11268" max="11268" width="12.109375" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.125" customWidth="1"/>
-    <col min="11272" max="11272" width="25.625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.109375" customWidth="1"/>
+    <col min="11271" max="11271" width="82.109375" customWidth="1"/>
+    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.88671875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.109375" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.88671875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.109375" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.125" customWidth="1"/>
+    <col min="11524" max="11524" width="12.109375" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.125" customWidth="1"/>
-    <col min="11528" max="11528" width="25.625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.109375" customWidth="1"/>
+    <col min="11527" max="11527" width="82.109375" customWidth="1"/>
+    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.88671875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.109375" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.88671875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.109375" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.125" customWidth="1"/>
+    <col min="11780" max="11780" width="12.109375" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.125" customWidth="1"/>
-    <col min="11784" max="11784" width="25.625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.109375" customWidth="1"/>
+    <col min="11783" max="11783" width="82.109375" customWidth="1"/>
+    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.88671875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.109375" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.88671875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.109375" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.125" customWidth="1"/>
+    <col min="12036" max="12036" width="12.109375" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.125" customWidth="1"/>
-    <col min="12040" max="12040" width="25.625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.109375" customWidth="1"/>
+    <col min="12039" max="12039" width="82.109375" customWidth="1"/>
+    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.88671875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.109375" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.88671875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.109375" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.125" customWidth="1"/>
+    <col min="12292" max="12292" width="12.109375" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.125" customWidth="1"/>
-    <col min="12296" max="12296" width="25.625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.109375" customWidth="1"/>
+    <col min="12295" max="12295" width="82.109375" customWidth="1"/>
+    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.88671875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.109375" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.88671875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.109375" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.125" customWidth="1"/>
+    <col min="12548" max="12548" width="12.109375" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.125" customWidth="1"/>
-    <col min="12552" max="12552" width="25.625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.109375" customWidth="1"/>
+    <col min="12551" max="12551" width="82.109375" customWidth="1"/>
+    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.88671875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.109375" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.88671875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.109375" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.125" customWidth="1"/>
+    <col min="12804" max="12804" width="12.109375" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.125" customWidth="1"/>
-    <col min="12808" max="12808" width="25.625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.109375" customWidth="1"/>
+    <col min="12807" max="12807" width="82.109375" customWidth="1"/>
+    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.88671875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.109375" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.88671875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.109375" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.125" customWidth="1"/>
+    <col min="13060" max="13060" width="12.109375" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.125" customWidth="1"/>
-    <col min="13064" max="13064" width="25.625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.109375" customWidth="1"/>
+    <col min="13063" max="13063" width="82.109375" customWidth="1"/>
+    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.88671875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.109375" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.88671875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.109375" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.125" customWidth="1"/>
+    <col min="13316" max="13316" width="12.109375" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.125" customWidth="1"/>
-    <col min="13320" max="13320" width="25.625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.109375" customWidth="1"/>
+    <col min="13319" max="13319" width="82.109375" customWidth="1"/>
+    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.88671875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.109375" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.88671875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.109375" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.125" customWidth="1"/>
+    <col min="13572" max="13572" width="12.109375" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.125" customWidth="1"/>
-    <col min="13576" max="13576" width="25.625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.109375" customWidth="1"/>
+    <col min="13575" max="13575" width="82.109375" customWidth="1"/>
+    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.88671875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.109375" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.88671875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.109375" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.125" customWidth="1"/>
+    <col min="13828" max="13828" width="12.109375" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.125" customWidth="1"/>
-    <col min="13832" max="13832" width="25.625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.109375" customWidth="1"/>
+    <col min="13831" max="13831" width="82.109375" customWidth="1"/>
+    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.88671875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.109375" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.88671875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.109375" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.125" customWidth="1"/>
+    <col min="14084" max="14084" width="12.109375" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.125" customWidth="1"/>
-    <col min="14088" max="14088" width="25.625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.109375" customWidth="1"/>
+    <col min="14087" max="14087" width="82.109375" customWidth="1"/>
+    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.88671875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.109375" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.88671875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.109375" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.125" customWidth="1"/>
+    <col min="14340" max="14340" width="12.109375" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.125" customWidth="1"/>
-    <col min="14344" max="14344" width="25.625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.109375" customWidth="1"/>
+    <col min="14343" max="14343" width="82.109375" customWidth="1"/>
+    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.88671875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.109375" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.88671875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.109375" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.125" customWidth="1"/>
+    <col min="14596" max="14596" width="12.109375" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.125" customWidth="1"/>
-    <col min="14600" max="14600" width="25.625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.109375" customWidth="1"/>
+    <col min="14599" max="14599" width="82.109375" customWidth="1"/>
+    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.88671875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.109375" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.88671875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.109375" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.125" customWidth="1"/>
+    <col min="14852" max="14852" width="12.109375" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.125" customWidth="1"/>
-    <col min="14856" max="14856" width="25.625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.109375" customWidth="1"/>
+    <col min="14855" max="14855" width="82.109375" customWidth="1"/>
+    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.88671875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.109375" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.88671875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.109375" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.125" customWidth="1"/>
+    <col min="15108" max="15108" width="12.109375" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.125" customWidth="1"/>
-    <col min="15112" max="15112" width="25.625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.109375" customWidth="1"/>
+    <col min="15111" max="15111" width="82.109375" customWidth="1"/>
+    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.88671875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.109375" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.88671875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.109375" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.125" customWidth="1"/>
+    <col min="15364" max="15364" width="12.109375" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.125" customWidth="1"/>
-    <col min="15368" max="15368" width="25.625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.109375" customWidth="1"/>
+    <col min="15367" max="15367" width="82.109375" customWidth="1"/>
+    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.88671875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.109375" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.88671875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.109375" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.125" customWidth="1"/>
+    <col min="15620" max="15620" width="12.109375" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.125" customWidth="1"/>
-    <col min="15624" max="15624" width="25.625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.109375" customWidth="1"/>
+    <col min="15623" max="15623" width="82.109375" customWidth="1"/>
+    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.88671875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.109375" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.88671875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.109375" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.125" customWidth="1"/>
+    <col min="15876" max="15876" width="12.109375" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.125" customWidth="1"/>
-    <col min="15880" max="15880" width="25.625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.109375" customWidth="1"/>
+    <col min="15879" max="15879" width="82.109375" customWidth="1"/>
+    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.88671875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.109375" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.88671875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.109375" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.125" customWidth="1"/>
+    <col min="16132" max="16132" width="12.109375" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.125" customWidth="1"/>
-    <col min="16136" max="16136" width="25.625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.109375" customWidth="1"/>
+    <col min="16135" max="16135" width="82.109375" customWidth="1"/>
+    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.88671875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.109375" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -6205,7 +6302,7 @@
       <c r="L1" s="58"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -6220,48 +6317,48 @@
       <c r="L2" s="60"/>
       <c r="M2" s="61"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6276,7 +6373,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6291,7 +6388,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6306,7 +6403,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6321,7 +6418,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6336,7 +6433,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6351,7 +6448,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6366,7 +6463,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6381,7 +6478,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6396,7 +6493,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>

--- a/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
+++ b/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="4200" windowWidth="28080" windowHeight="13060"/>
+    <workbookView xWindow="60" yWindow="860" windowWidth="28740" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4.2新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -183,18 +183,6 @@
   </si>
   <si>
     <t>李萌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>房态图菜单样式统一</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -282,12 +270,52 @@
     <t>邵明基</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>房东PC集中式房间录入房间号验证</t>
+  </si>
+  <si>
+    <t>Bugfixs</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>李萌</t>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -414,8 +442,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,8 +475,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -547,8 +588,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,8 +633,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +815,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,11 +830,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
@@ -780,8 +855,10 @@
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1155,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1264,7 +1341,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>46</v>
@@ -1291,9 +1368,15 @@
       <c r="N2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="39"/>
+      <c r="O2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="32">
+        <v>42671</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="45"/>
@@ -1305,16 +1388,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>46</v>
@@ -1341,9 +1424,15 @@
       <c r="N3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="39"/>
+      <c r="O3" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="32">
+        <v>42671</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="R3" s="36"/>
       <c r="S3" s="36"/>
       <c r="T3" s="45"/>
@@ -1354,46 +1443,46 @@
       <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="B4" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="66">
         <v>42671</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="66">
         <v>42671</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="39"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="67"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
       <c r="T4" s="45"/>
@@ -1411,48 +1500,48 @@
         <v>42</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>58</v>
       </c>
       <c r="H5" s="32">
         <v>42671</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="31"/>
       <c r="L5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="39" t="s">
         <v>59</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="P5" s="32">
         <v>42671</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="36"/>
       <c r="U5" s="44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V5" s="43"/>
     </row>
@@ -1467,13 +1556,13 @@
         <v>42</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>19</v>
@@ -1489,20 +1578,20 @@
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
-      <c r="T6" s="62"/>
+      <c r="T6" s="58"/>
       <c r="U6" s="42"/>
       <c r="V6" s="43"/>
     </row>
@@ -6520,36 +6609,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A3" s="5" t="s">

--- a/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
+++ b/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4.3 20161028\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="860" windowWidth="28740" windowHeight="13160"/>
+    <workbookView xWindow="60" yWindow="855" windowWidth="28740" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4.2新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -818,6 +823,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,23 +850,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="14">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
@@ -856,11 +862,10 @@
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1233,36 +1238,36 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="O6" sqref="O6:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="25" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="25" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.125" style="26" customWidth="1"/>
     <col min="5" max="5" width="15" style="25" customWidth="1"/>
     <col min="6" max="6" width="18" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="25" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="25" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="25" customWidth="1"/>
     <col min="15" max="15" width="10" style="26" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="26" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="26" customWidth="1"/>
     <col min="18" max="18" width="12" style="27" customWidth="1"/>
     <col min="19" max="19" width="17" style="27" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="27" customWidth="1"/>
-    <col min="21" max="21" width="41.83203125" style="26" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="27" customWidth="1"/>
+    <col min="21" max="21" width="41.875" style="26" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="23" customFormat="1" ht="28">
+    <row r="1" spans="1:22" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="2" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1383,7 +1388,7 @@
       <c r="U2" s="42"/>
       <c r="V2" s="43"/>
     </row>
-    <row r="3" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1439,57 +1444,63 @@
       <c r="U3" s="44"/>
       <c r="V3" s="43"/>
     </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="62">
         <v>42671</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="62">
         <v>42671</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="67" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="O4" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="32">
+        <v>42671</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
       <c r="T4" s="45"/>
       <c r="U4" s="44"/>
       <c r="V4" s="43"/>
     </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -1545,7 +1556,7 @@
       </c>
       <c r="V5" s="43"/>
     </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -1586,16 +1597,22 @@
       <c r="N6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="39"/>
+      <c r="O6" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="32">
+        <v>42671</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
       <c r="T6" s="58"/>
       <c r="U6" s="42"/>
       <c r="V6" s="43"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="47"/>
@@ -1619,7 +1636,7 @@
       <c r="U7" s="53"/>
       <c r="V7" s="43"/>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1">
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="47"/>
@@ -1643,7 +1660,7 @@
       <c r="U8" s="52"/>
       <c r="V8" s="43"/>
     </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="47"/>
@@ -1667,7 +1684,7 @@
       <c r="U9" s="53"/>
       <c r="V9" s="43"/>
     </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="10" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="47"/>
@@ -1691,7 +1708,7 @@
       <c r="U10" s="53"/>
       <c r="V10" s="43"/>
     </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="47"/>
@@ -1715,7 +1732,7 @@
       <c r="U11" s="53"/>
       <c r="V11" s="43"/>
     </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="47"/>
@@ -1739,7 +1756,7 @@
       <c r="U12" s="42"/>
       <c r="V12" s="43"/>
     </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1763,7 +1780,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="43"/>
     </row>
-    <row r="14" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -1787,7 +1804,7 @@
       <c r="U14" s="42"/>
       <c r="V14" s="43"/>
     </row>
-    <row r="15" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="15" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="47"/>
@@ -1811,7 +1828,7 @@
       <c r="U15" s="42"/>
       <c r="V15" s="43"/>
     </row>
-    <row r="16" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="16" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="47"/>
@@ -1835,7 +1852,7 @@
       <c r="U16" s="42"/>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="17" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="47"/>
@@ -1859,7 +1876,7 @@
       <c r="U17" s="42"/>
       <c r="V17" s="43"/>
     </row>
-    <row r="18" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="18" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="47"/>
@@ -1883,7 +1900,7 @@
       <c r="U18" s="42"/>
       <c r="V18" s="43"/>
     </row>
-    <row r="19" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="19" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="47"/>
@@ -1907,7 +1924,7 @@
       <c r="U19" s="42"/>
       <c r="V19" s="43"/>
     </row>
-    <row r="20" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="20" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="47"/>
@@ -1931,7 +1948,7 @@
       <c r="U20" s="42"/>
       <c r="V20" s="43"/>
     </row>
-    <row r="21" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="21" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -1955,7 +1972,7 @@
       <c r="U21" s="42"/>
       <c r="V21" s="43"/>
     </row>
-    <row r="22" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="22" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -1979,7 +1996,7 @@
       <c r="U22" s="42"/>
       <c r="V22" s="43"/>
     </row>
-    <row r="23" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="23" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -2003,7 +2020,7 @@
       <c r="U23" s="34"/>
       <c r="V23" s="43"/>
     </row>
-    <row r="24" spans="1:22" s="24" customFormat="1" ht="15">
+    <row r="24" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -2027,7 +2044,7 @@
       <c r="U24" s="34"/>
       <c r="V24" s="43"/>
     </row>
-    <row r="25" spans="1:22" ht="15">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2050,7 +2067,7 @@
       <c r="T25" s="36"/>
       <c r="U25" s="37"/>
     </row>
-    <row r="26" spans="1:22" ht="15">
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2073,7 +2090,7 @@
       <c r="T26" s="36"/>
       <c r="U26" s="37"/>
     </row>
-    <row r="27" spans="1:22" ht="15">
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2096,7 +2113,7 @@
       <c r="T27" s="36"/>
       <c r="U27" s="37"/>
     </row>
-    <row r="28" spans="1:22" ht="15">
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2119,7 +2136,7 @@
       <c r="T28" s="36"/>
       <c r="U28" s="37"/>
     </row>
-    <row r="29" spans="1:22" ht="15">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2142,7 +2159,7 @@
       <c r="T29" s="36"/>
       <c r="U29" s="37"/>
     </row>
-    <row r="30" spans="1:22" ht="15">
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2165,7 +2182,7 @@
       <c r="T30" s="36"/>
       <c r="U30" s="37"/>
     </row>
-    <row r="31" spans="1:22" ht="15">
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2188,7 +2205,7 @@
       <c r="T31" s="36"/>
       <c r="U31" s="37"/>
     </row>
-    <row r="32" spans="1:22" ht="15">
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2211,7 +2228,7 @@
       <c r="T32" s="36"/>
       <c r="U32" s="37"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2234,7 +2251,7 @@
       <c r="T33" s="36"/>
       <c r="U33" s="37"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2257,7 +2274,7 @@
       <c r="T34" s="36"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2280,7 +2297,7 @@
       <c r="T35" s="36"/>
       <c r="U35" s="37"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2303,7 +2320,7 @@
       <c r="T36" s="36"/>
       <c r="U36" s="37"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2326,7 +2343,7 @@
       <c r="T37" s="36"/>
       <c r="U37" s="37"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2349,7 +2366,7 @@
       <c r="T38" s="36"/>
       <c r="U38" s="37"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2372,7 +2389,7 @@
       <c r="T39" s="36"/>
       <c r="U39" s="37"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2395,7 +2412,7 @@
       <c r="T40" s="36"/>
       <c r="U40" s="37"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2418,7 +2435,7 @@
       <c r="T41" s="36"/>
       <c r="U41" s="37"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2441,7 +2458,7 @@
       <c r="T42" s="36"/>
       <c r="U42" s="37"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2464,7 +2481,7 @@
       <c r="T43" s="36"/>
       <c r="U43" s="37"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2487,7 +2504,7 @@
       <c r="T44" s="36"/>
       <c r="U44" s="37"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2510,7 +2527,7 @@
       <c r="T45" s="36"/>
       <c r="U45" s="37"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2533,7 +2550,7 @@
       <c r="T46" s="36"/>
       <c r="U46" s="37"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2556,7 +2573,7 @@
       <c r="T47" s="36"/>
       <c r="U47" s="37"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2579,7 +2596,7 @@
       <c r="T48" s="36"/>
       <c r="U48" s="37"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2602,7 +2619,7 @@
       <c r="T49" s="36"/>
       <c r="U49" s="37"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2625,7 +2642,7 @@
       <c r="T50" s="36"/>
       <c r="U50" s="37"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2648,7 +2665,7 @@
       <c r="T51" s="36"/>
       <c r="U51" s="37"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2671,7 +2688,7 @@
       <c r="T52" s="36"/>
       <c r="U52" s="37"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2694,7 +2711,7 @@
       <c r="T53" s="36"/>
       <c r="U53" s="37"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -2717,7 +2734,7 @@
       <c r="T54" s="36"/>
       <c r="U54" s="37"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
@@ -2740,7 +2757,7 @@
       <c r="T55" s="36"/>
       <c r="U55" s="37"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
@@ -2763,7 +2780,7 @@
       <c r="T56" s="36"/>
       <c r="U56" s="37"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
@@ -2786,7 +2803,7 @@
       <c r="T57" s="36"/>
       <c r="U57" s="37"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -2809,7 +2826,7 @@
       <c r="T58" s="36"/>
       <c r="U58" s="37"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -2832,7 +2849,7 @@
       <c r="T59" s="36"/>
       <c r="U59" s="37"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -2855,7 +2872,7 @@
       <c r="T60" s="36"/>
       <c r="U60" s="37"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -2878,7 +2895,7 @@
       <c r="T61" s="36"/>
       <c r="U61" s="37"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -2901,7 +2918,7 @@
       <c r="T62" s="36"/>
       <c r="U62" s="37"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -2924,7 +2941,7 @@
       <c r="T63" s="36"/>
       <c r="U63" s="37"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -2947,7 +2964,7 @@
       <c r="T64" s="36"/>
       <c r="U64" s="37"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -2970,7 +2987,7 @@
       <c r="T65" s="36"/>
       <c r="U65" s="37"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -2993,7 +3010,7 @@
       <c r="T66" s="36"/>
       <c r="U66" s="37"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -3016,7 +3033,7 @@
       <c r="T67" s="36"/>
       <c r="U67" s="37"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -3039,7 +3056,7 @@
       <c r="T68" s="36"/>
       <c r="U68" s="37"/>
     </row>
-    <row r="69" spans="1:21" ht="15">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -3062,7 +3079,7 @@
       <c r="T69" s="36"/>
       <c r="U69" s="37"/>
     </row>
-    <row r="70" spans="1:21" ht="15">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -3085,7 +3102,7 @@
       <c r="T70" s="36"/>
       <c r="U70" s="37"/>
     </row>
-    <row r="71" spans="1:21" ht="15">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -3108,7 +3125,7 @@
       <c r="T71" s="36"/>
       <c r="U71" s="37"/>
     </row>
-    <row r="72" spans="1:21" ht="15">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -3131,7 +3148,7 @@
       <c r="T72" s="36"/>
       <c r="U72" s="37"/>
     </row>
-    <row r="73" spans="1:21" ht="15">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -3154,7 +3171,7 @@
       <c r="T73" s="36"/>
       <c r="U73" s="37"/>
     </row>
-    <row r="74" spans="1:21" ht="15">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -3177,7 +3194,7 @@
       <c r="T74" s="36"/>
       <c r="U74" s="37"/>
     </row>
-    <row r="75" spans="1:21" ht="15">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -3200,7 +3217,7 @@
       <c r="T75" s="36"/>
       <c r="U75" s="37"/>
     </row>
-    <row r="76" spans="1:21" ht="15">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -3223,7 +3240,7 @@
       <c r="T76" s="36"/>
       <c r="U76" s="37"/>
     </row>
-    <row r="77" spans="1:21" ht="15">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -3246,7 +3263,7 @@
       <c r="T77" s="36"/>
       <c r="U77" s="37"/>
     </row>
-    <row r="78" spans="1:21" ht="15">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -3269,7 +3286,7 @@
       <c r="T78" s="36"/>
       <c r="U78" s="37"/>
     </row>
-    <row r="79" spans="1:21" ht="15">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -3292,7 +3309,7 @@
       <c r="T79" s="36"/>
       <c r="U79" s="37"/>
     </row>
-    <row r="80" spans="1:21" ht="15">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -3315,7 +3332,7 @@
       <c r="T80" s="36"/>
       <c r="U80" s="37"/>
     </row>
-    <row r="81" spans="1:21" ht="15">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -3338,7 +3355,7 @@
       <c r="T81" s="36"/>
       <c r="U81" s="37"/>
     </row>
-    <row r="82" spans="1:21" ht="15">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -3361,7 +3378,7 @@
       <c r="T82" s="36"/>
       <c r="U82" s="37"/>
     </row>
-    <row r="83" spans="1:21" ht="15">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -3384,7 +3401,7 @@
       <c r="T83" s="36"/>
       <c r="U83" s="37"/>
     </row>
-    <row r="84" spans="1:21" ht="15">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -3407,7 +3424,7 @@
       <c r="T84" s="36"/>
       <c r="U84" s="37"/>
     </row>
-    <row r="85" spans="1:21" ht="15">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -3430,7 +3447,7 @@
       <c r="T85" s="36"/>
       <c r="U85" s="37"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -3453,7 +3470,7 @@
       <c r="T86" s="36"/>
       <c r="U86" s="37"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -3476,7 +3493,7 @@
       <c r="T87" s="36"/>
       <c r="U87" s="37"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -3499,7 +3516,7 @@
       <c r="T88" s="36"/>
       <c r="U88" s="37"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -3522,7 +3539,7 @@
       <c r="T89" s="36"/>
       <c r="U89" s="37"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -3545,7 +3562,7 @@
       <c r="T90" s="36"/>
       <c r="U90" s="37"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -3568,7 +3585,7 @@
       <c r="T91" s="36"/>
       <c r="U91" s="37"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -3591,7 +3608,7 @@
       <c r="T92" s="36"/>
       <c r="U92" s="37"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -3614,7 +3631,7 @@
       <c r="T93" s="36"/>
       <c r="U93" s="37"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -3637,7 +3654,7 @@
       <c r="T94" s="36"/>
       <c r="U94" s="37"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -3660,7 +3677,7 @@
       <c r="T95" s="36"/>
       <c r="U95" s="37"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -3683,7 +3700,7 @@
       <c r="T96" s="36"/>
       <c r="U96" s="37"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -3706,7 +3723,7 @@
       <c r="T97" s="36"/>
       <c r="U97" s="37"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -3729,7 +3746,7 @@
       <c r="T98" s="36"/>
       <c r="U98" s="37"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -3752,7 +3769,7 @@
       <c r="T99" s="36"/>
       <c r="U99" s="37"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -3775,7 +3792,7 @@
       <c r="T100" s="36"/>
       <c r="U100" s="37"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -3798,7 +3815,7 @@
       <c r="T101" s="36"/>
       <c r="U101" s="37"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -3821,7 +3838,7 @@
       <c r="T102" s="36"/>
       <c r="U102" s="37"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -3844,7 +3861,7 @@
       <c r="T103" s="36"/>
       <c r="U103" s="37"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -3867,7 +3884,7 @@
       <c r="T104" s="36"/>
       <c r="U104" s="37"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -3890,7 +3907,7 @@
       <c r="T105" s="36"/>
       <c r="U105" s="37"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -3913,7 +3930,7 @@
       <c r="T106" s="36"/>
       <c r="U106" s="37"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -3936,7 +3953,7 @@
       <c r="T107" s="36"/>
       <c r="U107" s="37"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -3959,7 +3976,7 @@
       <c r="T108" s="36"/>
       <c r="U108" s="37"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -3982,7 +3999,7 @@
       <c r="T109" s="36"/>
       <c r="U109" s="37"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -4005,7 +4022,7 @@
       <c r="T110" s="36"/>
       <c r="U110" s="37"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -4028,7 +4045,7 @@
       <c r="T111" s="36"/>
       <c r="U111" s="37"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -4051,7 +4068,7 @@
       <c r="T112" s="36"/>
       <c r="U112" s="37"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -4074,7 +4091,7 @@
       <c r="T113" s="36"/>
       <c r="U113" s="37"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -4097,7 +4114,7 @@
       <c r="T114" s="36"/>
       <c r="U114" s="37"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -4120,7 +4137,7 @@
       <c r="T115" s="36"/>
       <c r="U115" s="37"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -4143,7 +4160,7 @@
       <c r="T116" s="36"/>
       <c r="U116" s="37"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -4166,7 +4183,7 @@
       <c r="T117" s="36"/>
       <c r="U117" s="37"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -4189,7 +4206,7 @@
       <c r="T118" s="36"/>
       <c r="U118" s="37"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -4212,7 +4229,7 @@
       <c r="T119" s="36"/>
       <c r="U119" s="37"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -4235,7 +4252,7 @@
       <c r="T120" s="36"/>
       <c r="U120" s="37"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -4258,7 +4275,7 @@
       <c r="T121" s="36"/>
       <c r="U121" s="37"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -4281,7 +4298,7 @@
       <c r="T122" s="36"/>
       <c r="U122" s="37"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -4304,7 +4321,7 @@
       <c r="T123" s="36"/>
       <c r="U123" s="37"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -4327,7 +4344,7 @@
       <c r="T124" s="36"/>
       <c r="U124" s="37"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -4350,7 +4367,7 @@
       <c r="T125" s="36"/>
       <c r="U125" s="37"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -4373,7 +4390,7 @@
       <c r="T126" s="36"/>
       <c r="U126" s="37"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -4396,7 +4413,7 @@
       <c r="T127" s="36"/>
       <c r="U127" s="37"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -4419,7 +4436,7 @@
       <c r="T128" s="36"/>
       <c r="U128" s="37"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -4442,7 +4459,7 @@
       <c r="T129" s="36"/>
       <c r="U129" s="37"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -4465,7 +4482,7 @@
       <c r="T130" s="36"/>
       <c r="U130" s="37"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -4488,7 +4505,7 @@
       <c r="T131" s="36"/>
       <c r="U131" s="37"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -4511,7 +4528,7 @@
       <c r="T132" s="36"/>
       <c r="U132" s="37"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -4534,7 +4551,7 @@
       <c r="T133" s="36"/>
       <c r="U133" s="37"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -4557,7 +4574,7 @@
       <c r="T134" s="36"/>
       <c r="U134" s="37"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -4580,7 +4597,7 @@
       <c r="T135" s="36"/>
       <c r="U135" s="37"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -4603,7 +4620,7 @@
       <c r="T136" s="36"/>
       <c r="U136" s="37"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -4626,7 +4643,7 @@
       <c r="T137" s="36"/>
       <c r="U137" s="37"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -4649,7 +4666,7 @@
       <c r="T138" s="36"/>
       <c r="U138" s="37"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -4672,7 +4689,7 @@
       <c r="T139" s="36"/>
       <c r="U139" s="37"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -4695,7 +4712,7 @@
       <c r="T140" s="36"/>
       <c r="U140" s="37"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -4718,7 +4735,7 @@
       <c r="T141" s="36"/>
       <c r="U141" s="37"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -4741,7 +4758,7 @@
       <c r="T142" s="36"/>
       <c r="U142" s="37"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -4764,7 +4781,7 @@
       <c r="T143" s="36"/>
       <c r="U143" s="37"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -4787,7 +4804,7 @@
       <c r="T144" s="36"/>
       <c r="U144" s="37"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -4810,7 +4827,7 @@
       <c r="T145" s="36"/>
       <c r="U145" s="37"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -4830,7 +4847,7 @@
       <c r="Q146" s="37"/>
       <c r="U146" s="37"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -4850,7 +4867,7 @@
       <c r="Q147" s="37"/>
       <c r="U147" s="37"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -4870,7 +4887,7 @@
       <c r="Q148" s="37"/>
       <c r="U148" s="37"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -4890,7 +4907,7 @@
       <c r="Q149" s="37"/>
       <c r="U149" s="37"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -4910,7 +4927,7 @@
       <c r="Q150" s="37"/>
       <c r="U150" s="37"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -4930,7 +4947,7 @@
       <c r="Q151" s="37"/>
       <c r="U151" s="37"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -4950,7 +4967,7 @@
       <c r="Q152" s="37"/>
       <c r="U152" s="37"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -4970,7 +4987,7 @@
       <c r="Q153" s="37"/>
       <c r="U153" s="37"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -4990,7 +5007,7 @@
       <c r="Q154" s="37"/>
       <c r="U154" s="37"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -5010,7 +5027,7 @@
       <c r="Q155" s="37"/>
       <c r="U155" s="37"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -5030,7 +5047,7 @@
       <c r="Q156" s="37"/>
       <c r="U156" s="37"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -5050,7 +5067,7 @@
       <c r="Q157" s="37"/>
       <c r="U157" s="37"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -5070,7 +5087,7 @@
       <c r="Q158" s="37"/>
       <c r="U158" s="37"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -5090,7 +5107,7 @@
       <c r="Q159" s="37"/>
       <c r="U159" s="37"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -5110,7 +5127,7 @@
       <c r="Q160" s="37"/>
       <c r="U160" s="37"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -5130,7 +5147,7 @@
       <c r="Q161" s="37"/>
       <c r="U161" s="37"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -5150,7 +5167,7 @@
       <c r="Q162" s="37"/>
       <c r="U162" s="37"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -5170,7 +5187,7 @@
       <c r="Q163" s="37"/>
       <c r="U163" s="37"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -5190,7 +5207,7 @@
       <c r="Q164" s="37"/>
       <c r="U164" s="37"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -5210,7 +5227,7 @@
       <c r="Q165" s="37"/>
       <c r="U165" s="37"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -5230,7 +5247,7 @@
       <c r="Q166" s="37"/>
       <c r="U166" s="37"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -5250,7 +5267,7 @@
       <c r="Q167" s="37"/>
       <c r="U167" s="37"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -5270,7 +5287,7 @@
       <c r="Q168" s="37"/>
       <c r="U168" s="37"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -5290,7 +5307,7 @@
       <c r="Q169" s="37"/>
       <c r="U169" s="37"/>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -5310,7 +5327,7 @@
       <c r="Q170" s="37"/>
       <c r="U170" s="37"/>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -5330,7 +5347,7 @@
       <c r="Q171" s="37"/>
       <c r="U171" s="37"/>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -5350,7 +5367,7 @@
       <c r="Q172" s="37"/>
       <c r="U172" s="37"/>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -5370,7 +5387,7 @@
       <c r="Q173" s="37"/>
       <c r="U173" s="37"/>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -5390,7 +5407,7 @@
       <c r="Q174" s="37"/>
       <c r="U174" s="37"/>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -5410,7 +5427,7 @@
       <c r="Q175" s="37"/>
       <c r="U175" s="37"/>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -5430,7 +5447,7 @@
       <c r="Q176" s="37"/>
       <c r="U176" s="37"/>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -5450,7 +5467,7 @@
       <c r="Q177" s="37"/>
       <c r="U177" s="37"/>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -5470,7 +5487,7 @@
       <c r="Q178" s="37"/>
       <c r="U178" s="37"/>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -5490,7 +5507,7 @@
       <c r="Q179" s="37"/>
       <c r="U179" s="37"/>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -5531,18 +5548,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
@@ -5568,7 +5585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -5578,7 +5595,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -5588,7 +5605,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5598,7 +5615,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -5608,7 +5625,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5618,7 +5635,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -5628,7 +5645,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -5638,7 +5655,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -5648,7 +5665,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -5658,7 +5675,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -5668,7 +5685,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -5678,7 +5695,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -5688,7 +5705,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -5698,7 +5715,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -5708,7 +5725,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -5718,7 +5735,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -5728,7 +5745,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -5738,7 +5755,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -5772,875 +5789,875 @@
       <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29.625" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6681,7 +6698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6696,7 +6713,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6711,7 +6728,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6726,7 +6743,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6741,7 +6758,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6756,7 +6773,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6771,7 +6788,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6786,7 +6803,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6801,7 +6818,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6816,7 +6833,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>

--- a/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
+++ b/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1528,7 +1528,9 @@
       <c r="I5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="62">
+        <v>42671</v>
+      </c>
       <c r="K5" s="31"/>
       <c r="L5" s="39" t="s">
         <v>56</v>

--- a/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
+++ b/VersionRecords/Version 5.0.4.3 20161028/版本Bug和特性计划及评审表v5.0.4.3.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -291,9 +291,6 @@
     <t>房东PC</t>
   </si>
   <si>
-    <t>韩淑芳</t>
-  </si>
-  <si>
     <t>马丁组</t>
   </si>
   <si>
@@ -313,6 +310,14 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1238,7 +1243,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,13 +1379,13 @@
         <v>49</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" s="32">
         <v>42671</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
@@ -1421,7 +1426,7 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="39" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M3" s="31" t="s">
         <v>48</v>
@@ -1430,13 +1435,13 @@
         <v>49</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P3" s="32">
         <v>42671</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R3" s="36"/>
       <c r="S3" s="36"/>
@@ -1477,13 +1482,13 @@
       </c>
       <c r="K4" s="61"/>
       <c r="L4" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="N4" s="61" t="s">
         <v>74</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>75</v>
       </c>
       <c r="O4" s="39" t="s">
         <v>59</v>
@@ -5533,7 +5538,7 @@
   <autoFilter ref="A1:U19"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
